--- a/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0328D8B-905D-4E5C-999F-9947551B1477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E8789-9387-421E-BC56-230956F0A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -724,180 +724,6 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>fada</t>
-  </si>
-  <si>
-    <t>povo da colina</t>
-  </si>
-  <si>
-    <t>forma do caos</t>
-  </si>
-  <si>
-    <t>caracol</t>
-  </si>
-  <si>
-    <t>espectro</t>
-  </si>
-  <si>
-    <t>súcubus</t>
-  </si>
-  <si>
-    <t>crab elder</t>
-  </si>
-  <si>
-    <t>orque</t>
-  </si>
-  <si>
-    <t>homem-lagarto</t>
-  </si>
-  <si>
-    <t>minotauro</t>
-  </si>
-  <si>
-    <t>lobo</t>
-  </si>
-  <si>
-    <t>zumbi</t>
-  </si>
-  <si>
-    <t>coelho</t>
-  </si>
-  <si>
-    <t>ovelha</t>
-  </si>
-  <si>
-    <t>sapo</t>
-  </si>
-  <si>
-    <t>centopéia</t>
-  </si>
-  <si>
-    <t>mandrágora</t>
-  </si>
-  <si>
-    <t>besouro</t>
-  </si>
-  <si>
-    <t>cogumelo</t>
-  </si>
-  <si>
-    <t>morcego</t>
-  </si>
-  <si>
-    <t>cão</t>
-  </si>
-  <si>
-    <t>fantasma</t>
-  </si>
-  <si>
-    <t>espírito</t>
-  </si>
-  <si>
-    <t>olho</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
-    <t>gigante</t>
-  </si>
-  <si>
-    <t>diabo</t>
-  </si>
-  <si>
-    <t>mão</t>
-  </si>
-  <si>
-    <t>serpente</t>
-  </si>
-  <si>
-    <t>urso</t>
-  </si>
-  <si>
-    <t>armadura</t>
-  </si>
-  <si>
-    <t>harpia</t>
-  </si>
-  <si>
-    <t>dragão</t>
-  </si>
-  <si>
-    <t>dinossauro</t>
-  </si>
-  <si>
-    <t>cérbero</t>
-  </si>
-  <si>
-    <t>aranha</t>
-  </si>
-  <si>
-    <t>rocha</t>
-  </si>
-  <si>
-    <t>caranguejo</t>
-  </si>
-  <si>
-    <t>esqueleto</t>
-  </si>
-  <si>
-    <t>peça</t>
-  </si>
-  <si>
-    <t>gato</t>
-  </si>
-  <si>
-    <t>cachorro</t>
-  </si>
-  <si>
-    <t>sereia</t>
-  </si>
-  <si>
-    <t>rato</t>
-  </si>
-  <si>
-    <t>concha</t>
-  </si>
-  <si>
-    <t>máquina</t>
-  </si>
-  <si>
-    <t>luz</t>
-  </si>
-  <si>
-    <t>galinha</t>
-  </si>
-  <si>
-    <t>cavalo</t>
-  </si>
-  <si>
-    <t>moto</t>
-  </si>
-  <si>
-    <t>peixe</t>
-  </si>
-  <si>
-    <t>porco</t>
-  </si>
-  <si>
-    <t>deus-gato</t>
-  </si>
-  <si>
-    <t>deus-máquina</t>
-  </si>
-  <si>
-    <t>irmã-gata</t>
-  </si>
-  <si>
-    <t>demônio</t>
-  </si>
-  <si>
-    <t>apóstolo</t>
-  </si>
-  <si>
-    <t>deus</t>
-  </si>
-  <si>
     <t>Os Yerles, povo do emergente Novo Reino em Sierre Terre, traçam sua linhagem até escravos que escaparam de Eulderna. Alimentando um ódio profundo pelo império e por tudo o que ele representa; eles estabeleceram o auge das civilizações mecânicas em Sierre. Dotados de uma capacidade de aprendizado elevada, habilidosos no manuseio de armamentos mecanizados, eles adquirem feitos mais rápido do que qualquer outra raça.</t>
   </si>
   <si>
@@ -949,7 +775,262 @@
     <t>O Elder Crab é o mais antigo das espécies de caranguejo, preferindo habitats à beira da água e evoluindo para vários elementos adaptados aos seus ambientes. São basicamente deliciosos, mas seu sabor varia dependendo do seu elemento. Excelentes em força e resistência, podem restringir inimigos com suas enormes pinças e são capazes de exalar um sopro de bolhas.</t>
   </si>
   <si>
-    <t>deus-morto-vivo</t>
+    <t xml:space="preserve">Esqueleto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peça  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachorro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roran  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sereia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máquina  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galinha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeek  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yith  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavalo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickling  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porco  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus-Gato  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus-Máquina  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus-Morto-Vivo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irmã-Gata  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demônio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apóstolo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus  </t>
+  </si>
+  <si>
+    <t>Perseguidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yerles  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eulderna  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fada  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Povo da Colina  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juere  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elea  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma do Caos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracol  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lich  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espectro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mifu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nefu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Súcubus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demigod  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiba  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crab Elder  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goblin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kobold  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orque  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troll  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homem-Lagarto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minotauro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norland  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asura  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slime  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zumbi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coelho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovelha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centopéia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrágora  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besouro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogumelo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morcego  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ent  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasma  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olho  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyvern  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vespa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigante  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serpente  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drake  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armadura  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medusa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harpia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragão  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinossauro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cérbero  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aranha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caranguejo  </t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1411,8 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1456,7 @@
         <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1384,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1401,7 +1482,7 @@
         <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1410,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1427,7 +1508,7 @@
         <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1436,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1453,7 +1534,7 @@
         <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1462,7 +1543,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1479,7 +1560,7 @@
         <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1488,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1505,7 +1586,7 @@
         <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1514,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1531,7 +1612,7 @@
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1540,7 +1621,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
@@ -1557,7 +1638,7 @@
         <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -1566,7 +1647,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -1583,7 +1664,7 @@
         <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1592,7 +1673,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1609,7 +1690,7 @@
         <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -1618,7 +1699,7 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
         <v>48</v>
@@ -1635,7 +1716,7 @@
         <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1644,7 +1725,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1661,7 +1742,7 @@
         <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>288</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -1670,7 +1751,7 @@
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -1687,7 +1768,7 @@
         <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -1696,7 +1777,7 @@
         <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
         <v>60</v>
@@ -1713,7 +1794,7 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
@@ -1722,7 +1803,7 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
@@ -1739,7 +1820,7 @@
         <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
@@ -1748,7 +1829,7 @@
         <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s">
         <v>68</v>
@@ -1765,7 +1846,7 @@
         <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -1774,7 +1855,7 @@
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
@@ -1791,7 +1872,7 @@
         <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -1800,7 +1881,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -1817,7 +1898,7 @@
         <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
         <v>79</v>
@@ -1834,7 +1915,7 @@
         <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
@@ -1851,7 +1932,7 @@
         <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
         <v>84</v>
@@ -1868,7 +1949,7 @@
         <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -1885,7 +1966,7 @@
         <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -1902,7 +1983,7 @@
         <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
@@ -1919,7 +2000,7 @@
         <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
@@ -1936,7 +2017,7 @@
         <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="D27" t="s">
         <v>94</v>
@@ -1953,7 +2034,7 @@
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -1970,7 +2051,7 @@
         <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
         <v>98</v>
@@ -1987,7 +2068,7 @@
         <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
         <v>100</v>
@@ -2004,7 +2085,7 @@
         <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
@@ -2021,7 +2102,7 @@
         <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="D32" t="s">
         <v>104</v>
@@ -2038,7 +2119,7 @@
         <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s">
         <v>106</v>
@@ -2055,7 +2136,7 @@
         <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="D34" t="s">
         <v>108</v>
@@ -2072,7 +2153,7 @@
         <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
         <v>110</v>
@@ -2089,7 +2170,7 @@
         <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="D36" t="s">
         <v>112</v>
@@ -2106,7 +2187,7 @@
         <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="D37" t="s">
         <v>114</v>
@@ -2123,7 +2204,7 @@
         <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
@@ -2140,7 +2221,7 @@
         <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
         <v>118</v>
@@ -2157,7 +2238,7 @@
         <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
@@ -2174,7 +2255,7 @@
         <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
         <v>122</v>
@@ -2191,7 +2272,7 @@
         <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2208,7 +2289,7 @@
         <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -2225,7 +2306,7 @@
         <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="D44" t="s">
         <v>128</v>
@@ -2242,7 +2323,7 @@
         <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="D45" t="s">
         <v>130</v>
@@ -2259,7 +2340,7 @@
         <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
@@ -2276,7 +2357,7 @@
         <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
@@ -2293,7 +2374,7 @@
         <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
@@ -2310,7 +2391,7 @@
         <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2327,7 +2408,7 @@
         <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="D50" t="s">
         <v>140</v>
@@ -2344,7 +2425,7 @@
         <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -2361,7 +2442,7 @@
         <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="D52" t="s">
         <v>144</v>
@@ -2378,7 +2459,7 @@
         <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="D53" t="s">
         <v>146</v>
@@ -2395,7 +2476,7 @@
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c r="D54" t="s">
         <v>148</v>
@@ -2412,7 +2493,7 @@
         <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="D55" t="s">
         <v>150</v>
@@ -2429,7 +2510,7 @@
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="D56" t="s">
         <v>152</v>
@@ -2446,7 +2527,7 @@
         <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="D57" t="s">
         <v>154</v>
@@ -2463,7 +2544,7 @@
         <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="D58" t="s">
         <v>156</v>
@@ -2480,7 +2561,7 @@
         <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
         <v>158</v>
@@ -2497,7 +2578,7 @@
         <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="D60" t="s">
         <v>160</v>
@@ -2514,7 +2595,7 @@
         <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="D61" t="s">
         <v>162</v>
@@ -2531,7 +2612,7 @@
         <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="D62" t="s">
         <v>164</v>
@@ -2548,7 +2629,7 @@
         <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D63" t="s">
         <v>166</v>
@@ -2565,7 +2646,7 @@
         <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -2582,7 +2663,7 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
         <v>170</v>
@@ -2599,7 +2680,7 @@
         <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
         <v>172</v>
@@ -2616,7 +2697,7 @@
         <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
         <v>174</v>
@@ -2633,7 +2714,7 @@
         <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
         <v>176</v>
@@ -2650,7 +2731,7 @@
         <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
         <v>178</v>
@@ -2667,7 +2748,7 @@
         <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
         <v>180</v>
@@ -2684,7 +2765,7 @@
         <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D71" t="s">
         <v>182</v>
@@ -2701,7 +2782,7 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
         <v>184</v>
@@ -2718,7 +2799,7 @@
         <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
         <v>186</v>
@@ -2735,7 +2816,7 @@
         <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
         <v>188</v>
@@ -2752,7 +2833,7 @@
         <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
         <v>190</v>
@@ -2769,7 +2850,7 @@
         <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="D76" t="s">
         <v>192</v>
@@ -2786,7 +2867,7 @@
         <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
         <v>194</v>
@@ -2803,7 +2884,7 @@
         <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
         <v>196</v>
@@ -2820,7 +2901,7 @@
         <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="D79" t="s">
         <v>198</v>
@@ -2837,7 +2918,7 @@
         <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D80" t="s">
         <v>200</v>
@@ -2854,7 +2935,7 @@
         <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
         <v>202</v>
@@ -2871,7 +2952,7 @@
         <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
         <v>205</v>
@@ -2888,7 +2969,7 @@
         <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D83" t="s">
         <v>207</v>
@@ -2905,7 +2986,7 @@
         <v>224</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D84" t="s">
         <v>209</v>
@@ -2922,7 +3003,7 @@
         <v>224</v>
       </c>
       <c r="C85" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
         <v>211</v>
@@ -2939,7 +3020,7 @@
         <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
         <v>213</v>
@@ -2956,7 +3037,7 @@
         <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D87" t="s">
         <v>215</v>
@@ -2973,7 +3054,7 @@
         <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D88" t="s">
         <v>218</v>
@@ -2990,7 +3071,7 @@
         <v>232</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
         <v>220</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E8789-9387-421E-BC56-230956F0A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F1702-5E21-405E-BE5B-546CDEB5595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1412,7 +1412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C62"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F1702-5E21-405E-BE5B-546CDEB5595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77E367-A370-43FC-91C9-26DB7FABF093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,313 +724,313 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>Os Yerles, povo do emergente Novo Reino em Sierre Terre, traçam sua linhagem até escravos que escaparam de Eulderna. Alimentando um ódio profundo pelo império e por tudo o que ele representa; eles estabeleceram o auge das civilizações mecânicas em Sierre. Dotados de uma capacidade de aprendizado elevada, habilidosos no manuseio de armamentos mecanizados, eles adquirem feitos mais rápido do que qualquer outra raça.</t>
-  </si>
-  <si>
-    <t>Uma das nações mais antigas de Sierre Terre, Eulderna detém vasto conhecimento de magia e armamentos mágicos. Reconhecidos e temidos como o império do deserto pelo mundo, eles carregam um senso de destino escolhido, acreditando que apenas eles são dignos de guiar o curso do mundo. São perfeccionistas cruéis. Euldernains são habilidosos em magia e ferramentas mágicas, tornando-os aptos para profissões de conjuradores e intermediárias.</t>
-  </si>
-  <si>
-    <t>Delicadas, frágeis e efêmeras, as fadas possuem maior poder mágico, evasão e velocidade incomparáveis em comparação aos humanos. Elas têm alta resistência a quase todos os elementos. No entanto, sua fragilidade física as impede de usar equipamentos mais pesados que 1s, tornando o fortalecimento das defesas um desafio. Um único ataque físico substancial pode colocá-las em perigo.</t>
-  </si>
-  <si>
-    <t>Os Hillfolk são uma raça robusta e resistente de estatura baixa. Antigamente, construíam grandes cidades de ouro e pedras preciosas profundas sob a terra, mas grande parte dessas belezas agora permanece apenas como ruínas habitadas por monstros perigosos. Possuindo habilidades avançadas em mineração e artesanato, seus corpos compactos e fortes são adequados para prosperar nos ambientes mais escuros e tóxicos. Eles têm um profundo amor por álcool e podem invocar forças além de suas capacidades habituais quando bebem.</t>
-  </si>
-  <si>
-    <t>Nômades do Sul de Tyris, sem uma terra natal, os Juere frequentemente caem em bandidagem, tornando-se notórios em Tyris. Eles valorizam a liberdade, detestam restrições e priorizam a autonomia pessoal. Dotados de mãos ágeis, sentidos aguçados e alta capacidade de aprendizado, são mestres em várias profissões. Podem ganhar a vida com apresentações e sobreviver com o mínimo de alimento.</t>
-  </si>
-  <si>
-    <t>Entre as raças mais antigas e misteriosas de Sierre Terre, os Elea são seres serenos, místicos e belos. Preferindo o isolamento, vivem pacificamente nas florestas. Eles têm resistência ao éter e vastos poderes mágicos, com a capacidade de mitigar danos de reação mágica.</t>
-  </si>
-  <si>
-    <t>Pouco se sabe sobre a Forma do Caos, também chamada de "Os Deformados". Eles mal retêm uma forma humana. As Formas do Caos adquirem novas partes do corpo à medida que crescem, mas o que emerge é imprevisível.</t>
-  </si>
-  <si>
-    <t>O caracol é uma criatura notavelmente lenta. Frágil, fraca, desajeitada e sem aptidão para aprendizado, pode ser dissolvida pelo sal.</t>
-  </si>
-  <si>
-    <t>Mortos-vivos imortais dotados de imensa inteligência e magia, os Liches possuem maior mana e habilidades de meditação do que outras raças. No entanto, carecem de resistência física para combate direto. Embora liches tenham resistência a vários elementos, são vulneráveis ao fogo.</t>
-  </si>
-  <si>
-    <t>Mortos-vivos imortais dotados de imensa inteligência e magia, os Wraiths possuem maior mana e habilidades de meditação do que outras raças. No entanto, carecem de resistência física para combate direto. Embora wraiths tenham resistência a vários elementos, são vulneráveis ao fogo.</t>
-  </si>
-  <si>
-    <t>Os Golems são materiais imbuídos de vida por meios mágicos. Comparados a outras raças, eles possuem força física muito superior. No entanto, talvez como um sacrifício, sua mana e velocidade são notavelmente inferiores. Golems têm forte resistência ao veneno, são imunes ao sangramento e possuem a vantagem de não sucumbir a um estado de confusão.</t>
-  </si>
-  <si>
-    <t>Os Mifu são uma raça híbrida de humano e raposa que vivem tranquilamente em um canto de Tyris. Ao contrário de sua raça irmã, os Nefu, são caracterizados por seus pelos e cabelos brancos, e grandes orelhas fofas que ficam em pé. São alegres e travessos, e, embora não sejam particularmente resilientes, compensam com seu excelente conhecimento de bênçãos e maldições.</t>
-  </si>
-  <si>
-    <t>Com pelos e cabelos vermelhos, seios generosos e caudas fofas que aumentam em número com a idade, os Nefu são uma raça híbrida de humano e raposa. Semelhantes aos Mifu, eles residem longe dos assentamentos humanos. No entanto, sua beleza marcante, combinada com seu estilo distinto de combate com espadas mágicas, se tornou um tópico de fascínio entre aventureiros.</t>
-  </si>
-  <si>
-    <t>Conhecidas pelo apelido "Lunar" ou "Kins da Luz da Lua", as Súcubos são ditas aparecer ao lado da cama de alguém em belas noites iluminadas pela lua, seduzindo os humanos com seu charme. A realidade disso é que, quer a lua esteja ou não visível, dia ou noite, elas simplesmente adoram experiências prazerosas. Elas possuem alta carisma e magia, tornando-se mais fortes ao se entregarem a sensações de prazer.</t>
-  </si>
-  <si>
-    <t>Os Demigods são filhos de um deus encarnado que desceu à terra e se misturou com os humanos. A maioria deles é produto dos caprichos dos deuses, e é raro que percebam suas origens ou habilidades únicas. Eles possuem beleza semelhante à dos deuses, habilidades bem equilibradas, vitalidade forte e mana.</t>
-  </si>
-  <si>
-    <t>Os Shiba, embora diversos em aparência e ecologia, são geralmente conhecidos por sua construção robusta e natureza amigável e submissa. São inteligentes e adoráveis, e possuem resistência ao frio.</t>
-  </si>
-  <si>
-    <t>O Elder Crab é o mais antigo das espécies de caranguejo, preferindo habitats à beira da água e evoluindo para vários elementos adaptados aos seus ambientes. São basicamente deliciosos, mas seu sabor varia dependendo do seu elemento. Excelentes em força e resistência, podem restringir inimigos com suas enormes pinças e são capazes de exalar um sopro de bolhas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esqueleto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peça  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cachorro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roran  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sereia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máquina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galinha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeek  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yith  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavalo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickling  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porco  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deus-Gato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deus-Máquina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deus-Morto-Vivo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irmã-Gata  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demônio  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apóstolo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deus  </t>
-  </si>
-  <si>
     <t>Perseguidor</t>
   </si>
   <si>
-    <t xml:space="preserve">Yerles  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eulderna  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Povo da Colina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juere  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elea  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forma do Caos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caracol  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lich  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espectro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golem  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mifu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nefu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Súcubus  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demigod  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiba  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crab Elder  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goblin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kobold  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orque  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troll  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homem-Lagarto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minotauro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norland  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slime  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zumbi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coelho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovelha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centopéia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrágora  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besouro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogumelo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morcego  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ent  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasma  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espírito  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyvern  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vespa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigante  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serpente  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drake  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armadura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medusa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupid  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harpia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinossauro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cérbero  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aranha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caranguejo  </t>
+    <t>Delicadas, frágeis e efêmeras, as fadas possuem um poder mágico, evasão e velocidade muito superiores aos dos humanos. São altamente resistentes a quase todos os elementos. No entanto, sua fragilidade física impede o uso de equipamentos mais pesados que 1s, tornando a defesa um verdadeiro desafio. Um único golpe físico mais forte pode colocá-las em perigo imediato.</t>
+  </si>
+  <si>
+    <t>Uma das nações mais antigas de Sierre Terre, Eulderna domina um vasto conhecimento de magia e armamentos mágicos. Reconhecido e temido como o império do deserto, esse povo carrega um senso arrogante de destino escolhido — acreditam ser os únicos dignos de guiar o rumo do mundo. São perfeccionistas cruéis. Os euldernianos são mestres em magia e artefatos mágicos, sendo ideais para profissões de conjuradores e classes intermediárias.</t>
+  </si>
+  <si>
+    <t>Os Yerles, povo do ascendente Novo Reino de Sierre Terre, descendem de escravos que escaparam das garras de Eulderna. Carregam um ódio profundo pelo império e por tudo o que ele representa — sentimento que alimenta seu avanço implacável. Foram eles que ergueram a mais poderosa civilização mecânica de Sierre. Com uma incrível capacidade de aprendizado e domínio sobre armamentos mecanizados, os yerlianos conquistam feitos com uma velocidade que nenhuma outra raça consegue igualar.</t>
+  </si>
+  <si>
+    <t>De baixa estatura, porém robustos e resistentes, os Hillfolk são uma raça determinada. No passado, construíram magníficas cidades de ouro e pedras preciosas sob a terra, agora em ruínas tomadas por monstros perigosos. Com habilidades avançadas em mineração e forja, seus corpos compactos são perfeitos para ambientes escuros e tóxicos. Amam bebidas alcoólicas e, quando embriagados, despertam uma força muito além do normal.</t>
+  </si>
+  <si>
+    <t>Nômades de South Tyris sem terra natal, os Juere muitas vezes se envolvem com bandidagem, o que lhes rendeu má fama em Tyris. Valorizam acima de tudo a liberdade, desprezam restrições e vivem segundo suas próprias regras. Com mãos ágeis, sentidos apurados e uma impressionante capacidade de aprender, são verdadeiros faz-tudo. Vivem de apresentações e conseguem se virar com muito pouco.</t>
+  </si>
+  <si>
+    <t>Entre as raças mais antigas e misteriosas de Sierre Terre, os Elea são seres serenos, místicos e belos. Preferem a solidão e vivem em harmonia nas florestas. Têm alta resistência ao éter e vasto poder mágico, capazes até de suavizar os efeitos colaterais da magia.</t>
+  </si>
+  <si>
+    <t>Pouco se sabe sobre os Formas do Caos, também chamados de "Deformados". Mal conservam uma forma humana. Conforme crescem, adquirem novos membros e partes do corpo, mas suas transformações são completamente imprevisíveis.</t>
+  </si>
+  <si>
+    <t>Criatura absurdamente lenta, frágil, fraca e desajeitada, o caracol também não tem nenhuma aptidão para aprendizado. E, claro… pode ser dissolvido com sal.</t>
+  </si>
+  <si>
+    <t>Mortos-vivos imortais dotados de inteligência e poder mágico imensos, os Liches possuem mais mana e habilidade de meditação do que qualquer outra raça. Porém, carecem de vigor físico para o combate corpo a corpo. Embora resistam a vários elementos, são extremamente vulneráveis ao fogo.</t>
+  </si>
+  <si>
+    <t>Semelhantes aos Liches, os Espectros são mortos-vivos imortais com grande domínio mágico e mental. Possuem alta mana e meditação, mas são frágeis fisicamente. Também têm resistência a diversos elementos, mas o fogo é sua fraqueza fatal.</t>
+  </si>
+  <si>
+    <t>Raça híbrida de humanos com raposas, os Mifu vivem pacificamente em um canto remoto de Tyris. Ao contrário de seus "irmãos", os Nefu, têm pelos e cabelos brancos, além de grandes orelhas fofas que ficam sempre em pé. São brincalhões e alegres. Embora não sejam resistentes, compensam com um domínio impressionante sobre bênçãos e maldições.</t>
+  </si>
+  <si>
+    <t>Criaturas feitas de matéria inanimada animada por magia, os Golems possuem força física incomparável. No entanto, em troca, são extremamente lentos e quase sem mana. Têm alta resistência a veneno, são imunes a sangramentos e não ficam atordoados.</t>
+  </si>
+  <si>
+    <t>Com pelos e cabelos avermelhados, seios fartos e caudas que aumentam em número conforme envelhecem, os Nefu também são uma raça híbrida de humano com raposa. Vivem longe de assentamentos humanos, como os Mifu, mas sua beleza exótica e estilo de combate mágico os tornaram objeto de fascínio entre aventureiros.</t>
+  </si>
+  <si>
+    <t>Conhecidas como “Lunares” ou “Filhas da Lua”, as Succubus dizem aparecer ao lado da cama de alguém em noites de luar, seduzindo com seu charme. Na prática, com ou sem lua, de dia ou de noite, elas simplesmente amam experiências prazerosas. Carismáticas e mágicas, tornam-se mais poderosas ao se entregarem aos prazeres da vida.</t>
+  </si>
+  <si>
+    <t>Apesar de variarem bastante na aparência e nos hábitos, os Shiba são conhecidos por seus corpos robustos e natureza dócil e amigável. Inteligentes e encantadores, também apresentam boa resistência ao frio.</t>
+  </si>
+  <si>
+    <t>O mais velho entre os caranguejos, o Caranguejo Ancião prefere viver próximo à água e evoluiu de forma distinta conforme o ambiente. Em essência, é delicioso — mas o gosto muda de acordo com seu elemento. São fortes, resistentes, capazes de prender inimigos com suas garras gigantescas e até soltar um sopro de bolhas.</t>
+  </si>
+  <si>
+    <t>Yerles</t>
+  </si>
+  <si>
+    <t>Eulderna</t>
+  </si>
+  <si>
+    <t>Fada</t>
+  </si>
+  <si>
+    <t>Povo do Vale</t>
+  </si>
+  <si>
+    <t>Juere</t>
+  </si>
+  <si>
+    <t>Elea</t>
+  </si>
+  <si>
+    <t>Forma do Caos</t>
+  </si>
+  <si>
+    <t>Caracol</t>
+  </si>
+  <si>
+    <t>Liche</t>
+  </si>
+  <si>
+    <t>Espectro</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Mifu</t>
+  </si>
+  <si>
+    <t>Nefu</t>
+  </si>
+  <si>
+    <t>Súcubo</t>
+  </si>
+  <si>
+    <t>Semideus</t>
+  </si>
+  <si>
+    <t>Shiba</t>
+  </si>
+  <si>
+    <t>Caranguejo Ancião</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Kobold</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Homem-Lagarto</t>
+  </si>
+  <si>
+    <t>Minotauro</t>
+  </si>
+  <si>
+    <t>Norlandês</t>
+  </si>
+  <si>
+    <t>Asura</t>
+  </si>
+  <si>
+    <t>Gosma</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Zumbi</t>
+  </si>
+  <si>
+    <t>Coelho</t>
+  </si>
+  <si>
+    <t>Ovelha</t>
+  </si>
+  <si>
+    <t>Sapo</t>
+  </si>
+  <si>
+    <t>Centopeia</t>
+  </si>
+  <si>
+    <t>Mandrágora</t>
+  </si>
+  <si>
+    <t>Besouro</t>
+  </si>
+  <si>
+    <t>Cogumelo</t>
+  </si>
+  <si>
+    <t>Morcego</t>
+  </si>
+  <si>
+    <t>Ent</t>
+  </si>
+  <si>
+    <t>Cão de Caça</t>
+  </si>
+  <si>
+    <t>Fantasma</t>
+  </si>
+  <si>
+    <t>Espírito</t>
+  </si>
+  <si>
+    <t>Olho</t>
+  </si>
+  <si>
+    <t>Guiverno</t>
+  </si>
+  <si>
+    <t>Vespa</t>
+  </si>
+  <si>
+    <t>Gigante</t>
+  </si>
+  <si>
+    <t>Diabrete</t>
+  </si>
+  <si>
+    <t>Mão</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Draco</t>
+  </si>
+  <si>
+    <t>Urso</t>
+  </si>
+  <si>
+    <t>Armadura</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Cupido</t>
+  </si>
+  <si>
+    <t>Fantasma Sombrio</t>
+  </si>
+  <si>
+    <t>Hárpia</t>
+  </si>
+  <si>
+    <t>Dragão</t>
+  </si>
+  <si>
+    <t>Dinossauro</t>
+  </si>
+  <si>
+    <t>Cérbero</t>
+  </si>
+  <si>
+    <t>Aranha</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Caranguejo</t>
+  </si>
+  <si>
+    <t>Esqueleto</t>
+  </si>
+  <si>
+    <t>Peça</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Roran</t>
+  </si>
+  <si>
+    <t>Sereia</t>
+  </si>
+  <si>
+    <t>Rato</t>
+  </si>
+  <si>
+    <t>Concha</t>
+  </si>
+  <si>
+    <t>Máquina</t>
+  </si>
+  <si>
+    <t>Fagulha</t>
+  </si>
+  <si>
+    <t>Galinha</t>
+  </si>
+  <si>
+    <t>Yeek</t>
+  </si>
+  <si>
+    <t>Yith</t>
+  </si>
+  <si>
+    <t>Cavalo</t>
+  </si>
+  <si>
+    <t>Veloz</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Porco</t>
+  </si>
+  <si>
+    <t>Deus Gato</t>
+  </si>
+  <si>
+    <t>Deus Máquina</t>
+  </si>
+  <si>
+    <t>Deus dos Mortos</t>
+  </si>
+  <si>
+    <t>Irmã Gata</t>
+  </si>
+  <si>
+    <t>Demônio</t>
+  </si>
+  <si>
+    <t>Apóstolo</t>
+  </si>
+  <si>
+    <t>Deus</t>
   </si>
 </sst>
 </file>
@@ -1071,9 +1071,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,15 +1414,17 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1448,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1464,8 +1469,8 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>233</v>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1482,7 +1487,7 @@
         <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1491,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1508,7 +1513,7 @@
         <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1517,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1534,7 +1539,7 @@
         <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1543,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1552,7 +1557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1568,8 +1573,8 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>237</v>
+      <c r="F7" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1586,7 +1591,7 @@
         <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1595,7 +1600,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1612,7 +1617,7 @@
         <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1621,7 +1626,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
@@ -1638,7 +1643,7 @@
         <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -1647,7 +1652,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
@@ -1664,7 +1669,7 @@
         <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1673,7 +1678,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1690,7 +1695,7 @@
         <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -1699,7 +1704,7 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
         <v>48</v>
@@ -1716,7 +1721,7 @@
         <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1725,7 +1730,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1742,7 +1747,7 @@
         <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -1768,7 +1773,7 @@
         <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -1777,7 +1782,7 @@
         <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
         <v>60</v>
@@ -1794,7 +1799,7 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
@@ -1803,7 +1808,7 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
@@ -1820,7 +1825,7 @@
         <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
@@ -1846,7 +1851,7 @@
         <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -1872,7 +1877,7 @@
         <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -1898,7 +1903,7 @@
         <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
         <v>79</v>
@@ -1915,7 +1920,7 @@
         <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
@@ -1932,7 +1937,7 @@
         <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D22" t="s">
         <v>84</v>
@@ -1949,7 +1954,7 @@
         <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -1966,7 +1971,7 @@
         <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -1983,7 +1988,7 @@
         <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
@@ -2000,7 +2005,7 @@
         <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D26" t="s">
         <v>92</v>
@@ -2017,7 +2022,7 @@
         <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
         <v>94</v>
@@ -2034,7 +2039,7 @@
         <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -2051,7 +2056,7 @@
         <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
         <v>98</v>
@@ -2068,7 +2073,7 @@
         <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
         <v>100</v>
@@ -2085,7 +2090,7 @@
         <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
@@ -2102,7 +2107,7 @@
         <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s">
         <v>104</v>
@@ -2119,7 +2124,7 @@
         <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D33" t="s">
         <v>106</v>
@@ -2136,7 +2141,7 @@
         <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="D34" t="s">
         <v>108</v>
@@ -2153,7 +2158,7 @@
         <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
         <v>110</v>
@@ -2170,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
         <v>112</v>
@@ -2187,7 +2192,7 @@
         <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D37" t="s">
         <v>114</v>
@@ -2204,7 +2209,7 @@
         <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D38" t="s">
         <v>116</v>
@@ -2221,7 +2226,7 @@
         <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D39" t="s">
         <v>118</v>
@@ -2238,7 +2243,7 @@
         <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
@@ -2255,7 +2260,7 @@
         <v>224</v>
       </c>
       <c r="C41" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D41" t="s">
         <v>122</v>
@@ -2272,7 +2277,7 @@
         <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="D42" t="s">
         <v>124</v>
@@ -2289,7 +2294,7 @@
         <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -2306,7 +2311,7 @@
         <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
         <v>128</v>
@@ -2323,7 +2328,7 @@
         <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="D45" t="s">
         <v>130</v>
@@ -2340,7 +2345,7 @@
         <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
@@ -2357,7 +2362,7 @@
         <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
@@ -2374,7 +2379,7 @@
         <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
         <v>136</v>
@@ -2391,7 +2396,7 @@
         <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -2408,7 +2413,7 @@
         <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="D50" t="s">
         <v>140</v>
@@ -2425,7 +2430,7 @@
         <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -2442,7 +2447,7 @@
         <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D52" t="s">
         <v>144</v>
@@ -2459,7 +2464,7 @@
         <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D53" t="s">
         <v>146</v>
@@ -2476,7 +2481,7 @@
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="D54" t="s">
         <v>148</v>
@@ -2493,7 +2498,7 @@
         <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
         <v>150</v>
@@ -2510,7 +2515,7 @@
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="D56" t="s">
         <v>152</v>
@@ -2527,7 +2532,7 @@
         <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D57" t="s">
         <v>154</v>
@@ -2544,7 +2549,7 @@
         <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="D58" t="s">
         <v>156</v>
@@ -2561,7 +2566,7 @@
         <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
         <v>158</v>
@@ -2578,7 +2583,7 @@
         <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D60" t="s">
         <v>160</v>
@@ -2595,7 +2600,7 @@
         <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="D61" t="s">
         <v>162</v>
@@ -2612,7 +2617,7 @@
         <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="D62" t="s">
         <v>164</v>
@@ -2629,7 +2634,7 @@
         <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="D63" t="s">
         <v>166</v>
@@ -2646,7 +2651,7 @@
         <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -2663,7 +2668,7 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="D65" t="s">
         <v>170</v>
@@ -2680,7 +2685,7 @@
         <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="D66" t="s">
         <v>172</v>
@@ -2697,7 +2702,7 @@
         <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="D67" t="s">
         <v>174</v>
@@ -2714,7 +2719,7 @@
         <v>227</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="D68" t="s">
         <v>176</v>
@@ -2731,7 +2736,7 @@
         <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D69" t="s">
         <v>178</v>
@@ -2748,7 +2753,7 @@
         <v>224</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="D70" t="s">
         <v>180</v>
@@ -2765,7 +2770,7 @@
         <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="D71" t="s">
         <v>182</v>
@@ -2782,7 +2787,7 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
         <v>184</v>
@@ -2799,7 +2804,7 @@
         <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D73" t="s">
         <v>186</v>
@@ -2816,7 +2821,7 @@
         <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
         <v>188</v>
@@ -2833,7 +2838,7 @@
         <v>224</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="D75" t="s">
         <v>190</v>
@@ -2850,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="D76" t="s">
         <v>192</v>
@@ -2867,7 +2872,7 @@
         <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="D77" t="s">
         <v>194</v>
@@ -2884,7 +2889,7 @@
         <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
         <v>196</v>
@@ -2901,7 +2906,7 @@
         <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
         <v>198</v>
@@ -2918,7 +2923,7 @@
         <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="D80" t="s">
         <v>200</v>
@@ -2935,7 +2940,7 @@
         <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="D81" t="s">
         <v>202</v>
@@ -2952,7 +2957,7 @@
         <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="D82" t="s">
         <v>205</v>
@@ -2969,7 +2974,7 @@
         <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="D83" t="s">
         <v>207</v>
@@ -2986,7 +2991,7 @@
         <v>224</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="D84" t="s">
         <v>209</v>
@@ -3003,7 +3008,7 @@
         <v>224</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="D85" t="s">
         <v>211</v>
@@ -3020,7 +3025,7 @@
         <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
         <v>213</v>
@@ -3037,7 +3042,7 @@
         <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="D87" t="s">
         <v>215</v>
@@ -3054,7 +3059,7 @@
         <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="D88" t="s">
         <v>218</v>
@@ -3071,7 +3076,7 @@
         <v>232</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="D89" t="s">
         <v>220</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77E367-A370-43FC-91C9-26DB7FABF093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E2BF1-4729-4A2B-B602-F86B0642D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Race" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -1031,6 +1031,18 @@
   </si>
   <si>
     <t>Deus</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>EA 23.116</t>
+  </si>
+  <si>
+    <t>タコ</t>
+  </si>
+  <si>
+    <t>Polvo</t>
   </si>
 </sst>
 </file>
@@ -1411,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,6 +3097,23 @@
         <v>221</v>
       </c>
     </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90" t="s">
+        <v>336</v>
+      </c>
+      <c r="E90" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
